--- a/Database/DATABASE DESIGN .xlsx
+++ b/Database/DATABASE DESIGN .xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Tatvasoft_Assignment\Assignment _2_Notes\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,21 +889,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -916,17 +901,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,24 +1148,24 @@
   </sheetPr>
   <dimension ref="A1:E1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A192" sqref="A192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="95.6640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="95.6640625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" customHeight="1">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="14.4">
       <c r="A2" s="1"/>
@@ -1182,22 +1182,22 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="18">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="14.4">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="14.4">
       <c r="A6" s="3" t="s">
@@ -1434,22 +1434,22 @@
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5" ht="18">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="14.4">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
     </row>
     <row r="24" spans="1:5" ht="14.4">
       <c r="A24" s="3" t="s">
@@ -1607,22 +1607,22 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" ht="18">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29"/>
     </row>
     <row r="36" spans="1:5" ht="14.4">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5" ht="14.4">
       <c r="A37" s="3" t="s">
@@ -1752,7 +1752,7 @@
       <c r="D44" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="23" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1918,22 +1918,22 @@
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" ht="18">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" ht="14.4">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58" spans="1:5" ht="14.4">
       <c r="A58" s="11" t="s">
@@ -2093,22 +2093,22 @@
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="18">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
     </row>
     <row r="70" spans="1:5" ht="14.4">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
     </row>
     <row r="71" spans="1:5" ht="14.4">
       <c r="A71" s="3" t="s">
@@ -2253,7 +2253,7 @@
       <c r="D79" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E79" s="29" t="s">
+      <c r="E79" s="24" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="D81" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="30" t="s">
+      <c r="E81" s="25" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2543,22 +2543,22 @@
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="1:5" ht="18">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="33"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="29"/>
     </row>
     <row r="100" spans="1:5" ht="13.2" customHeight="1">
-      <c r="A100" s="35" t="s">
+      <c r="A100" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="35"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
     </row>
     <row r="101" spans="1:5" ht="14.4">
       <c r="A101" s="3" t="s">
@@ -2716,22 +2716,22 @@
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="1:5" ht="18">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="33"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="29"/>
     </row>
     <row r="113" spans="1:5" ht="14.4">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28"/>
     </row>
     <row r="114" spans="1:5" ht="14.4">
       <c r="A114" s="3" t="s">
@@ -2900,22 +2900,22 @@
       <c r="E125" s="2"/>
     </row>
     <row r="126" spans="1:5" ht="18">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="33"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="28"/>
+      <c r="E126" s="29"/>
     </row>
     <row r="127" spans="1:5" ht="14.4">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="28"/>
+      <c r="D127" s="28"/>
+      <c r="E127" s="28"/>
     </row>
     <row r="128" spans="1:5" ht="14.4">
       <c r="A128" s="3" t="s">
@@ -3092,22 +3092,22 @@
       <c r="E139" s="2"/>
     </row>
     <row r="140" spans="1:5" ht="18">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="32"/>
-      <c r="C140" s="32"/>
-      <c r="D140" s="32"/>
-      <c r="E140" s="33"/>
+      <c r="B140" s="28"/>
+      <c r="C140" s="28"/>
+      <c r="D140" s="28"/>
+      <c r="E140" s="29"/>
     </row>
     <row r="141" spans="1:5" ht="14.4">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="32"/>
-      <c r="C141" s="32"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
     </row>
     <row r="142" spans="1:5" ht="14.4">
       <c r="A142" s="3" t="s">
@@ -3278,22 +3278,22 @@
       <c r="E153" s="2"/>
     </row>
     <row r="154" spans="1:5" ht="18">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="B154" s="32"/>
-      <c r="C154" s="32"/>
-      <c r="D154" s="32"/>
-      <c r="E154" s="33"/>
+      <c r="B154" s="28"/>
+      <c r="C154" s="28"/>
+      <c r="D154" s="28"/>
+      <c r="E154" s="29"/>
     </row>
     <row r="155" spans="1:5" ht="14.4">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B155" s="32"/>
-      <c r="C155" s="32"/>
-      <c r="D155" s="32"/>
-      <c r="E155" s="32"/>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
     </row>
     <row r="156" spans="1:5" ht="14.4">
       <c r="A156" s="3" t="s">
@@ -3426,22 +3426,22 @@
       <c r="E165" s="20"/>
     </row>
     <row r="166" spans="1:5" ht="18">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="B166" s="32"/>
-      <c r="C166" s="32"/>
-      <c r="D166" s="32"/>
-      <c r="E166" s="33"/>
+      <c r="B166" s="28"/>
+      <c r="C166" s="28"/>
+      <c r="D166" s="28"/>
+      <c r="E166" s="29"/>
     </row>
     <row r="167" spans="1:5" ht="14.4">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B167" s="32"/>
-      <c r="C167" s="32"/>
-      <c r="D167" s="32"/>
-      <c r="E167" s="32"/>
+      <c r="B167" s="28"/>
+      <c r="C167" s="28"/>
+      <c r="D167" s="28"/>
+      <c r="E167" s="28"/>
     </row>
     <row r="168" spans="1:5" ht="14.4">
       <c r="A168" s="3" t="s">
@@ -3602,22 +3602,22 @@
       <c r="E179" s="20"/>
     </row>
     <row r="180" spans="1:5" ht="18">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="33"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="29"/>
     </row>
     <row r="181" spans="1:5" ht="14.4">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B181" s="32"/>
-      <c r="C181" s="32"/>
-      <c r="D181" s="32"/>
-      <c r="E181" s="32"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="28"/>
+      <c r="D181" s="28"/>
+      <c r="E181" s="28"/>
     </row>
     <row r="182" spans="1:5" ht="14.4">
       <c r="A182" s="3" t="s">
@@ -3839,22 +3839,22 @@
       <c r="E196" s="20"/>
     </row>
     <row r="197" spans="1:5" ht="18">
-      <c r="A197" s="23" t="s">
+      <c r="A197" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="B197" s="32"/>
-      <c r="C197" s="32"/>
-      <c r="D197" s="32"/>
-      <c r="E197" s="33"/>
+      <c r="B197" s="28"/>
+      <c r="C197" s="28"/>
+      <c r="D197" s="28"/>
+      <c r="E197" s="29"/>
     </row>
     <row r="198" spans="1:5" ht="14.4">
-      <c r="A198" s="24" t="s">
+      <c r="A198" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B198" s="32"/>
-      <c r="C198" s="32"/>
-      <c r="D198" s="32"/>
-      <c r="E198" s="32"/>
+      <c r="B198" s="28"/>
+      <c r="C198" s="28"/>
+      <c r="D198" s="28"/>
+      <c r="E198" s="28"/>
     </row>
     <row r="199" spans="1:5" ht="14.4">
       <c r="A199" s="3" t="s">
@@ -4027,22 +4027,22 @@
       <c r="E210" s="10"/>
     </row>
     <row r="211" spans="1:5" ht="18">
-      <c r="A211" s="23" t="s">
+      <c r="A211" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="B211" s="32"/>
-      <c r="C211" s="32"/>
-      <c r="D211" s="32"/>
-      <c r="E211" s="33"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="28"/>
+      <c r="D211" s="28"/>
+      <c r="E211" s="29"/>
     </row>
     <row r="212" spans="1:5" ht="14.4">
-      <c r="A212" s="24" t="s">
+      <c r="A212" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B212" s="32"/>
-      <c r="C212" s="32"/>
-      <c r="D212" s="32"/>
-      <c r="E212" s="32"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="28"/>
     </row>
     <row r="213" spans="1:5" ht="14.4">
       <c r="A213" s="3" t="s">
@@ -6543,21 +6543,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A166:E166"/>
     <mergeCell ref="A211:E211"/>
     <mergeCell ref="A212:E212"/>
     <mergeCell ref="A113:E113"/>
@@ -6572,6 +6557,21 @@
     <mergeCell ref="A181:E181"/>
     <mergeCell ref="A197:E197"/>
     <mergeCell ref="A198:E198"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A166:E166"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
